--- a/classfiers/nano/svm/nano-svm-linear-results.xlsx
+++ b/classfiers/nano/svm/nano-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.888888888888889</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9992957746478873</v>
+        <v>0.9385200089425442</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.787878787878788</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9990610328638497</v>
+        <v>0.9069975408003577</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6086956521739131</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7</v>
+        <v>0.35</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6511627906976744</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9838028169014085</v>
+        <v>0.9227699530516432</v>
       </c>
     </row>
     <row r="5">
@@ -524,13 +524,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6333333333333333</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7755102040816326</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7727272727272727</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8947368421052632</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8292682926829269</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.996787744007907</v>
+        <v>0.8387323943661972</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8029512516469038</v>
+        <v>0.2</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8089473684210526</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7865417928459821</v>
+        <v>0.1037037037037037</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9957894736842106</v>
+        <v>0.9214039794321485</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/nano/svm/nano-svm-linear-results.xlsx
+++ b/classfiers/nano/svm/nano-svm-linear-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9385200089425442</v>
+        <v>0.9229517091698318</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9069975408003577</v>
+        <v>0.9161692892023875</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5185185185185185</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9227699530516432</v>
+        <v>0.9332760595647194</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.994818652849741</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8387323943661972</v>
+        <v>0.7879738205617671</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06999999999999999</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1037037037037037</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9214039794321485</v>
+        <v>0.9110379062696893</v>
       </c>
     </row>
   </sheetData>
